--- a/data/sample_games.xlsx
+++ b/data/sample_games.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="12660"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="74">
   <si>
     <t>日期</t>
   </si>
@@ -261,7 +261,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,13 +272,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -746,148 +739,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1242,13 +1235,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
@@ -1527,6 +1520,454 @@
         <v>72</v>
       </c>
       <c r="R5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6">
+        <v>8.5</v>
+      </c>
+      <c r="H6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N6" t="s">
+        <v>30</v>
+      </c>
+      <c r="O6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>33</v>
+      </c>
+      <c r="R6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>49</v>
+      </c>
+      <c r="R7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" t="s">
+        <v>55</v>
+      </c>
+      <c r="J8" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" t="s">
+        <v>41</v>
+      </c>
+      <c r="M8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N8" t="s">
+        <v>30</v>
+      </c>
+      <c r="O8" t="s">
+        <v>57</v>
+      </c>
+      <c r="P8" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>59</v>
+      </c>
+      <c r="R8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9">
+        <v>7.8</v>
+      </c>
+      <c r="H9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9" t="s">
+        <v>69</v>
+      </c>
+      <c r="L9" t="s">
+        <v>70</v>
+      </c>
+      <c r="M9" t="s">
+        <v>47</v>
+      </c>
+      <c r="N9" t="s">
+        <v>30</v>
+      </c>
+      <c r="O9" t="s">
+        <v>31</v>
+      </c>
+      <c r="P9" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>72</v>
+      </c>
+      <c r="R9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10">
+        <v>8.5</v>
+      </c>
+      <c r="H10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N10" t="s">
+        <v>30</v>
+      </c>
+      <c r="O10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P10" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>33</v>
+      </c>
+      <c r="R10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11" t="s">
+        <v>45</v>
+      </c>
+      <c r="L11" t="s">
+        <v>46</v>
+      </c>
+      <c r="M11" t="s">
+        <v>47</v>
+      </c>
+      <c r="N11" t="s">
+        <v>30</v>
+      </c>
+      <c r="O11" t="s">
+        <v>31</v>
+      </c>
+      <c r="P11" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>49</v>
+      </c>
+      <c r="R11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" t="s">
+        <v>55</v>
+      </c>
+      <c r="J12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12" t="s">
+        <v>41</v>
+      </c>
+      <c r="L12" t="s">
+        <v>41</v>
+      </c>
+      <c r="M12" t="s">
+        <v>29</v>
+      </c>
+      <c r="N12" t="s">
+        <v>30</v>
+      </c>
+      <c r="O12" t="s">
+        <v>57</v>
+      </c>
+      <c r="P12" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>59</v>
+      </c>
+      <c r="R12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13">
+        <v>7.8</v>
+      </c>
+      <c r="H13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I13" t="s">
+        <v>65</v>
+      </c>
+      <c r="J13" t="s">
+        <v>68</v>
+      </c>
+      <c r="K13" t="s">
+        <v>69</v>
+      </c>
+      <c r="L13" t="s">
+        <v>70</v>
+      </c>
+      <c r="M13" t="s">
+        <v>47</v>
+      </c>
+      <c r="N13" t="s">
+        <v>30</v>
+      </c>
+      <c r="O13" t="s">
+        <v>31</v>
+      </c>
+      <c r="P13" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>72</v>
+      </c>
+      <c r="R13" t="s">
         <v>73</v>
       </c>
     </row>
